--- a/biology/Médecine/Daouda_Badarou/Daouda_Badarou.xlsx
+++ b/biology/Médecine/Daouda_Badarou/Daouda_Badarou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Daouda Badarou, né le 7 janvier 1929 à Porto-Novo au Dahomey (actuel Bénin), est un chirurgien, diplomate et homme politique béninois.
@@ -514,17 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et études
-Daouda Badarou naît le 7 janvier 1929 à Porto-Novo au Dahomey, où il entame ses études avant de les poursuivre, d'abord au Sénégal, puis en France, à l'Université de Paris. Il y obtient un doctorat en médecine en 1957 et un diplôme en chirurgie en 1961[2].
-Carrière professionnelle et politique
-De retour au Dahomey, Daouda Badarou reste attentif aux évolutions techniques liées à son métier et continue de se perfectionner en chirurgie en effectuant des stages en France[3]. Il est promu, le 14 février 1963, médecin-chef de la circonscription médicale d'Abomey[3].
-Lorsque le général Christophe Soglo constitue son gouvernement, après sa seconde prise de pouvoir[n 2], il fait appel à Daouda Badarou, qui accède pour la première fois, le 24 décembre 1965, à une fonction ministérielle en obtenant le portefeuille de la Santé publique et des Affaires sociales[n 3],[4]. Mais Daouda Badarou ne bafoue pas pour autant le serment d'Hippocrate et obtient l'autorisation du général Soglo de continuer à exercer son métier de chirurgien à l'hôpital de Cotonou, cumulativement avec ses fonctions gouvernementales[5].
-Malgré trois remaniements ministériels successifs[n 4], il reste en poste jusqu'au 17 décembre 1967, date à laquelle un putsch militaire contraint Christophe Soglo à abandonner la présidence de la République. Le 21 décembre 1967, Daouda Badarou est relayé dans sa fonction par Pierre Boni, médecin-lieutenant[6].
-À la suite de ce coup d'État, Émile-Derlin Zinsou arrive à la tête du pays quelques mois plus tard et permet à Daouda Badarou d'intégrer pour la deuxième fois un gouvernement en étant nommé ministre des Affaires étrangères le 31 juillet 1968[7].
-Le 10 décembre 1969, les militaires renversent le président en place au bout de 18 mois de pouvoir seulement. Le gouvernement est destitué, un nouveau est formé et Benoît Sinzogan succède à Daouda Badarou[n 5],[8]. Mais ce dernier retrouve son poste dès le 7 mai suivant[9], lorsque l'armée rend le pouvoir aux civils ; un Conseil présidentiel est installé, dirigé par Hubert Maga[n 6].
-Lors du remaniement ministériel du 4 août 1971, Michel Ahouanmènou, ambassadeur du Dahomey en France, est rappelé dans son pays d'origine pour prendre la suite de Daouda Badarou, qui récupère la place du diplomate à Paris[10],[11]. Il devient également ambassadeur non-résident du Dahomey en Grande-Bretagne, en Italie et en Espagne[2]. Mathieu Kérékou met fin à ses fonctions le 22 décembre 1972[12] et est par la suite remplacé par Wilfrid de Souza[13].
-Retraite
-Alors âgé de 61 ans, Daouda Badarou est médecin inspecteur régional adjoint de la santé publique lorsqu'il fait valoir ses droits à la retraite française à partir du 5 février 1990[14].
+          <t>Jeunesse et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daouda Badarou naît le 7 janvier 1929 à Porto-Novo au Dahomey, où il entame ses études avant de les poursuivre, d'abord au Sénégal, puis en France, à l'Université de Paris. Il y obtient un doctorat en médecine en 1957 et un diplôme en chirurgie en 1961.
 </t>
         </is>
       </c>
@@ -550,13 +558,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle et politique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De retour au Dahomey, Daouda Badarou reste attentif aux évolutions techniques liées à son métier et continue de se perfectionner en chirurgie en effectuant des stages en France. Il est promu, le 14 février 1963, médecin-chef de la circonscription médicale d'Abomey.
+Lorsque le général Christophe Soglo constitue son gouvernement, après sa seconde prise de pouvoir[n 2], il fait appel à Daouda Badarou, qui accède pour la première fois, le 24 décembre 1965, à une fonction ministérielle en obtenant le portefeuille de la Santé publique et des Affaires sociales[n 3],. Mais Daouda Badarou ne bafoue pas pour autant le serment d'Hippocrate et obtient l'autorisation du général Soglo de continuer à exercer son métier de chirurgien à l'hôpital de Cotonou, cumulativement avec ses fonctions gouvernementales.
+Malgré trois remaniements ministériels successifs[n 4], il reste en poste jusqu'au 17 décembre 1967, date à laquelle un putsch militaire contraint Christophe Soglo à abandonner la présidence de la République. Le 21 décembre 1967, Daouda Badarou est relayé dans sa fonction par Pierre Boni, médecin-lieutenant.
+À la suite de ce coup d'État, Émile-Derlin Zinsou arrive à la tête du pays quelques mois plus tard et permet à Daouda Badarou d'intégrer pour la deuxième fois un gouvernement en étant nommé ministre des Affaires étrangères le 31 juillet 1968.
+Le 10 décembre 1969, les militaires renversent le président en place au bout de 18 mois de pouvoir seulement. Le gouvernement est destitué, un nouveau est formé et Benoît Sinzogan succède à Daouda Badarou[n 5],. Mais ce dernier retrouve son poste dès le 7 mai suivant, lorsque l'armée rend le pouvoir aux civils ; un Conseil présidentiel est installé, dirigé par Hubert Maga[n 6].
+Lors du remaniement ministériel du 4 août 1971, Michel Ahouanmènou, ambassadeur du Dahomey en France, est rappelé dans son pays d'origine pour prendre la suite de Daouda Badarou, qui récupère la place du diplomate à Paris,. Il devient également ambassadeur non-résident du Dahomey en Grande-Bretagne, en Italie et en Espagne. Mathieu Kérékou met fin à ses fonctions le 22 décembre 1972 et est par la suite remplacé par Wilfrid de Souza.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daouda_Badarou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daouda_Badarou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Retraite</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors âgé de 61 ans, Daouda Badarou est médecin inspecteur régional adjoint de la santé publique lorsqu'il fait valoir ses droits à la retraite française à partir du 5 février 1990.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daouda_Badarou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daouda_Badarou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre national du Dahomey (1969)[15].
- Commandeur de l'ordre national du Dahomey (1970)[16].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre national du Dahomey (1969).
+ Commandeur de l'ordre national du Dahomey (1970).</t>
         </is>
       </c>
     </row>
